--- a/medicine/Mort/Fouquieres_Churchyard_Extension/Fouquieres_Churchyard_Extension.xlsx
+++ b/medicine/Mort/Fouquieres_Churchyard_Extension/Fouquieres_Churchyard_Extension.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fouquieres Churchyard Extension est un cimetière situé à Fouquières-lès-Béthune dans le département français du Pas-de-Calais. Géré par la Commonwealth War Graves Commission, ce cimetière contient la sépulture de 421 combattants des première et seconde guerres mondiales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fouquieres Churchyard Extension est un cimetière situé à Fouquières-lès-Béthune dans le département français du Pas-de-Calais. Géré par la Commonwealth War Graves Commission, ce cimetière contient la sépulture de 421 combattants des première et seconde guerres mondiales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conçu par l'architecte britannique Edwin Lutyens, le Fouquieres Churchyard Extension est un cimetière géré par la CWGC de France. Il contient les restes de 416 soldats du Royaume-Uni et 5 d'Allemagne[1]. Concernant les tombes britanniques, 387 sont des tombes de la Première Guerre mondiale, 29 de la Deuxième Guerre mondiale. Ce cimetière est situé à proximité immédiate du cimetière communal qui comporte également une tombe de combattant britannique, et répertorié sous le nom de Fouquieres Churchyard[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conçu par l'architecte britannique Edwin Lutyens, le Fouquieres Churchyard Extension est un cimetière géré par la CWGC de France. Il contient les restes de 416 soldats du Royaume-Uni et 5 d'Allemagne. Concernant les tombes britanniques, 387 sont des tombes de la Première Guerre mondiale, 29 de la Deuxième Guerre mondiale. Ce cimetière est situé à proximité immédiate du cimetière communal qui comporte également une tombe de combattant britannique, et répertorié sous le nom de Fouquieres Churchyard.
 </t>
         </is>
       </c>
